--- a/public/template/ADS_MasterMahasiswa.xlsx
+++ b/public/template/ADS_MasterMahasiswa.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Politeknik Astra SMT 4\Asli Projek SMT 4\ads-dashboard-frontend\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saifa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D65A97-3DD0-4EBA-8A58-6AFF43D2D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0373369E-8C2C-4034-8A9F-760DD4C207A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="24645" windowHeight="13770" xr2:uid="{73E93B6C-B5F5-43C6-AB20-F4BC222F4304}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{819BE638-0C02-4098-96EE-3A94CA176840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>Nama Mahasiswa</t>
+    <t xml:space="preserve">Nama </t>
+  </si>
+  <si>
+    <t>Tingkat</t>
   </si>
 </sst>
 </file>
@@ -52,7 +53,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,12 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,39 +126,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,7 +210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -321,6 +321,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -329,13 +336,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,133 +400,336 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE0A85-1DA7-48DD-BA1F-7B01D79B5243}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96C0A51-7F03-433B-B8F1-260BBF6EC57E}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
